--- a/Table_Processing/Filter_D.xlsx
+++ b/Table_Processing/Filter_D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lea/ContrastiveDecodingNew/Table_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C403C9C-EEAF-E642-AB1B-20AEB2A522D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0152AC14-304A-894A-8E19-4A7502BE35CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="22300" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" workbookViewId="0">
       <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
